--- a/UI10.xlsx
+++ b/UI10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>home</t>
   </si>
@@ -30,15 +30,6 @@
     <t>topic</t>
   </si>
   <si>
-    <t>coverd</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>interviewd</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -88,6 +79,204 @@
   </si>
   <si>
     <t>Block-Inline</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>iframes</t>
+  </si>
+  <si>
+    <t>filepaths</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Semantics</t>
+  </si>
+  <si>
+    <t>Style Guide</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Emojis</t>
+  </si>
+  <si>
+    <t>Charset</t>
+  </si>
+  <si>
+    <t>URL Encode</t>
+  </si>
+  <si>
+    <t>XHTML</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>form-attributes</t>
+  </si>
+  <si>
+    <t>form-elements</t>
+  </si>
+  <si>
+    <t>form-input-types</t>
+  </si>
+  <si>
+    <t>form-input-attributes</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>Selectors</t>
+  </si>
+  <si>
+    <t>How To</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Backgrounds</t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>Margins</t>
+  </si>
+  <si>
+    <t>Padding</t>
+  </si>
+  <si>
+    <t>Height Width</t>
+  </si>
+  <si>
+    <t>Box Model</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>Practiced</t>
+  </si>
+  <si>
+    <t>HTTP Messages</t>
+  </si>
+  <si>
+    <t>HTTP Methods</t>
+  </si>
+  <si>
+    <t>Interviewed</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Fonts</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Max-width</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Z-index</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Inline-block</t>
+  </si>
+  <si>
+    <t>Align</t>
+  </si>
+  <si>
+    <t>Combinators</t>
+  </si>
+  <si>
+    <t>Pseudo-class</t>
+  </si>
+  <si>
+    <t>Pseudo-element</t>
+  </si>
+  <si>
+    <t>Opacity</t>
+  </si>
+  <si>
+    <t>dropdowns</t>
+  </si>
+  <si>
+    <t>Navigation Bar</t>
+  </si>
+  <si>
+    <t>Image Gallery</t>
+  </si>
+  <si>
+    <t>Image Sprites</t>
+  </si>
+  <si>
+    <t>Attr Selectors</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Counters</t>
+  </si>
+  <si>
+    <t>Website Layout</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>!important</t>
+  </si>
+  <si>
+    <t>Math Functions</t>
   </si>
 </sst>
 </file>
@@ -111,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,12 +308,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="10" sqref="D1 B1 B1 B1 B1 B1 B1 D1 D1 D1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,162 +645,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -604,13 +1055,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
